--- a/results/I3_N5_M3_T15_C150_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.5164527965026</v>
+        <v>174.9328060669644</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0690000057220459</v>
+        <v>0.0540001392364502</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>30.93280606696437</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.32000000000681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>258.55</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.30463804208573</v>
+        <v>6.507502297930266</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.483894208462594</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.510903778477015</v>
+        <v>10.25804892475681</v>
       </c>
     </row>
     <row r="7">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4420000000003</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.19899999999971</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>126.0459999999993</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>67.24200000000052</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>155.7320000000007</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>126.0459999999993</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>128.4420000000003</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>155.7320000000007</v>
+        <v>105.6</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.732000000000681</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10.834</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,17 +1305,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
